--- a/data/2023/fid/FID-PHILOS-DE-38.xlsx
+++ b/data/2023/fid/FID-PHILOS-DE-38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="286">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -91,30 +91,66 @@
     <t>FL-Bibliotheken</t>
   </si>
   <si>
+    <t>622533-0</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>The American journal of semiotics</t>
+  </si>
+  <si>
+    <t>Philosophy Documentation Center</t>
+  </si>
+  <si>
+    <t>Charlottesville, Va.</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0277-7126</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>7,11;FID-LING-DE-30;FID-PHILOS-DE-38</t>
+  </si>
+  <si>
+    <t>1.1981/82 - 14.1997(1998); 15/16.2000 -</t>
+  </si>
+  <si>
+    <t>DE-38</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12;DE-15;DE-468</t>
+  </si>
+  <si>
     <t>2506746-1</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Philosophy research archives</t>
   </si>
   <si>
-    <t>Philosophy Documentation Center</t>
-  </si>
-  <si>
     <t>Charlottesville, Virginia</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2153-8069</t>
   </si>
   <si>
@@ -223,6 +259,9 @@
     <t>The New scholasticism</t>
   </si>
   <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
     <t>Washington, DC [u.a.]</t>
   </si>
   <si>
@@ -319,6 +358,27 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2508436;https://www.pdcnet.org/critanalysis</t>
   </si>
   <si>
+    <t>2130251-0</t>
+  </si>
+  <si>
+    <t>New Vico studies</t>
+  </si>
+  <si>
+    <t>Institute for Vico Studies, Emory University</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>2153-8255</t>
+  </si>
+  <si>
+    <t>Volume 1 (1983)-volume 27 (2009) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/newvico;http://www.bibliothek.uni-regensburg.de/ezeit/?2130251</t>
+  </si>
+  <si>
     <t>2523016-5</t>
   </si>
   <si>
@@ -424,40 +484,106 @@
     <t>https://www.pdcnet.org/philstudies;http://www.bibliothek.uni-regensburg.de/ezeit/?2532685</t>
   </si>
   <si>
-    <t>622533-0</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>The American journal of semiotics</t>
-  </si>
-  <si>
-    <t>Charlottesville, Va.</t>
-  </si>
-  <si>
-    <t>0277-7126</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>7,11;FID-LING-DE-30;FID-PHILOS-DE-38</t>
-  </si>
-  <si>
-    <t>1.1981/82 - 14.1997(1998); 15/16.2000 -</t>
-  </si>
-  <si>
-    <t>DE-38</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12;DE-15;DE-468</t>
+    <t>2835403-5</t>
+  </si>
+  <si>
+    <t>Tulane studies in philosophy</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>New Orleans, La.</t>
+  </si>
+  <si>
+    <t>2154-0462</t>
+  </si>
+  <si>
+    <t>1.1952 - 35.1987; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2835403;https://www.pdcnet.org/tulane</t>
+  </si>
+  <si>
+    <t>2629519-2</t>
+  </si>
+  <si>
+    <t>Ethics &amp; medics</t>
+  </si>
+  <si>
+    <t>National Catholic Bioethics Center</t>
+  </si>
+  <si>
+    <t>Philadelphia, Pa.</t>
+  </si>
+  <si>
+    <t>1938-1638</t>
+  </si>
+  <si>
+    <t>100;610</t>
+  </si>
+  <si>
+    <t>Volume 45, number 12 (December 2020) [?]-</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/em;http://www.bibliothek.uni-regensburg.de/ezeit/?2629519</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-12</t>
+  </si>
+  <si>
+    <t>2847726-1</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Saint Augustine lecture series, The</t>
+  </si>
+  <si>
+    <t>Villanova University Press;Macmillan</t>
+  </si>
+  <si>
+    <t>Villanova, Pa.;New York, NY</t>
+  </si>
+  <si>
+    <t>2153-3040</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1959-1986 ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/stauglect;http://www.bibliothek.uni-regensburg.de/ezeit/?2847726</t>
+  </si>
+  <si>
+    <t>2879202-6</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>IAPC</t>
+  </si>
+  <si>
+    <t>Montclair, NJ</t>
+  </si>
+  <si>
+    <t>2380-6370</t>
+  </si>
+  <si>
+    <t>100;370</t>
+  </si>
+  <si>
+    <t>1 (1979)-20 (2014) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/thinking;http://www.bibliothek.uni-regensburg.de/ezeit/?2879202</t>
   </si>
   <si>
     <t>3120788-1</t>
@@ -478,33 +604,240 @@
     <t>https://www.pdcnet.org/leibniz</t>
   </si>
   <si>
-    <t>2130251-0</t>
-  </si>
-  <si>
-    <t>New Vico studies</t>
-  </si>
-  <si>
-    <t>Institute for Vico Studies, Emory University</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>2153-8255</t>
-  </si>
-  <si>
-    <t>Volume 1 (1983)-volume 27 (2009) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/newvico;http://www.bibliothek.uni-regensburg.de/ezeit/?2130251</t>
+    <t>2694345-1</t>
+  </si>
+  <si>
+    <t>Philo</t>
+  </si>
+  <si>
+    <t>Center for Inquiry</t>
+  </si>
+  <si>
+    <t>Amherst, NY</t>
+  </si>
+  <si>
+    <t>2154-1639</t>
+  </si>
+  <si>
+    <t>1.1998-vol. 17, no. 1 (spring/summer 2014) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/philo;http://www.bibliothek.uni-regensburg.de/ezeit/?2694345</t>
+  </si>
+  <si>
+    <t>3145915-8</t>
+  </si>
+  <si>
+    <t>Herder</t>
+  </si>
+  <si>
+    <t>Nomos</t>
+  </si>
+  <si>
+    <t>Baden-Baden</t>
+  </si>
+  <si>
+    <t>ger;eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nomos-elibrary.de/;https://philportal.de/ </t>
+  </si>
+  <si>
+    <t>2771677-6</t>
+  </si>
+  <si>
+    <t>The annual of the Society of Christian Ethics</t>
+  </si>
+  <si>
+    <t>Society of Christian Ethics</t>
+  </si>
+  <si>
+    <t>Dallas, Tex.</t>
+  </si>
+  <si>
+    <t>2372-9023</t>
+  </si>
+  <si>
+    <t>100;230</t>
+  </si>
+  <si>
+    <t>2538854-X</t>
+  </si>
+  <si>
+    <t>2771688-0</t>
+  </si>
+  <si>
+    <t>[1.]1981 - [16.]1996; 17.1997 - 21.2001</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/asce;https://www.jstor.org/journal/annusocichriethi;http://www.bibliothek.uni-regensburg.de/ezeit/?2771677</t>
+  </si>
+  <si>
+    <t>Selected papers from the ... annual meeting</t>
+  </si>
+  <si>
+    <t>SCE;Council on the Study of Religion, Wilfrid Laurier Univ.</t>
+  </si>
+  <si>
+    <t>Dallas, Tex.;Waterloo, Ontario</t>
+  </si>
+  <si>
+    <t>2372-904X</t>
+  </si>
+  <si>
+    <t>2771690-9</t>
+  </si>
+  <si>
+    <t>21.1980</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2771688;https://www.pdcnet.org/selpapsce;https://www.jstor.org/journal/selpapsocchreth</t>
+  </si>
+  <si>
+    <t>Scholars Press</t>
+  </si>
+  <si>
+    <t>Missoula, Mont.</t>
+  </si>
+  <si>
+    <t>2372-9082</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 16.1975 - 20.1979</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2771690;https://www.pdcnet.org/selpapasce;https://www.jstor.org/journal/selpapamesocchre</t>
+  </si>
+  <si>
+    <t>2830039-7</t>
+  </si>
+  <si>
+    <t>Business ethics</t>
+  </si>
+  <si>
+    <t>New Mountain Media LLC;Mavis</t>
+  </si>
+  <si>
+    <t>New York;Minneapolis, Minn.</t>
+  </si>
+  <si>
+    <t>2155-2398</t>
+  </si>
+  <si>
+    <t>330;360;100</t>
+  </si>
+  <si>
+    <t>1.1987 - 20.2006,2</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2830039;https://www.pdcnet.org/bemag</t>
+  </si>
+  <si>
+    <t>2830210-2</t>
+  </si>
+  <si>
+    <t>Bulletin of literary semiotics</t>
+  </si>
+  <si>
+    <t>Tufts Univ.</t>
+  </si>
+  <si>
+    <t>Medford, Mass.</t>
+  </si>
+  <si>
+    <t>2334-5268</t>
+  </si>
+  <si>
+    <t>400;800</t>
+  </si>
+  <si>
+    <t>2831377-X</t>
+  </si>
+  <si>
+    <t>No. 2 (1975)-no. 3 (1976)</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/bls;http://www.bibliothek.uni-regensburg.de/ezeit/?2830210</t>
+  </si>
+  <si>
+    <t>2830681-8</t>
+  </si>
+  <si>
+    <t>Proceedings of the International Association for Business and Society</t>
+  </si>
+  <si>
+    <t>International Association for Business and Society</t>
+  </si>
+  <si>
+    <t>[Erscheinungsort nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>2160-6900</t>
+  </si>
+  <si>
+    <t>Volume 1-</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/iabsproc;http://www.bibliothek.uni-regensburg.de/ezeit/?2830681</t>
+  </si>
+  <si>
+    <t>2830711-2</t>
+  </si>
+  <si>
+    <t>Social imaginaries</t>
+  </si>
+  <si>
+    <t>Zeta Books</t>
+  </si>
+  <si>
+    <t>Bukarest</t>
+  </si>
+  <si>
+    <t>2457-2926</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>FID-OST-DE-12;FID-PHILOS-DE-38;FID-PHILOS-DE-12</t>
+  </si>
+  <si>
+    <t>Volume 1, issue 1 (spring 2015)-volume 5, issue 2 (autumn 2019) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/si;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;https://www.ceeol.com/search/journal-detail?id=2391;http://www.bibliothek.uni-regensburg.de/ezeit/?2830711</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>2831581-9</t>
+  </si>
+  <si>
+    <t>The modern schoolman</t>
+  </si>
+  <si>
+    <t>Saint Louis, Mo.</t>
+  </si>
+  <si>
+    <t>2164-0726</t>
+  </si>
+  <si>
+    <t>1;FID-PHILOS-DE-38;FID-PHILOS-DE-12</t>
+  </si>
+  <si>
+    <t>2831730-0</t>
+  </si>
+  <si>
+    <t>1.1925 - 89.2012</t>
+  </si>
+  <si>
+    <t>https://www.pdcnet.org/schoolman;http://www.bibliothek.uni-regensburg.de/ezeit/?2831581</t>
   </si>
   <si>
     <t>2831718-X</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>International corporate responsibility series</t>
   </si>
   <si>
@@ -539,318 +872,6 @@
   </si>
   <si>
     <t>https://www.pdcnet.org/philcontext;http://www.bibliothek.uni-regensburg.de/ezeit/?2831726</t>
-  </si>
-  <si>
-    <t>2835403-5</t>
-  </si>
-  <si>
-    <t>Tulane studies in philosophy</t>
-  </si>
-  <si>
-    <t>Tulane University</t>
-  </si>
-  <si>
-    <t>New Orleans, La.</t>
-  </si>
-  <si>
-    <t>2154-0462</t>
-  </si>
-  <si>
-    <t>1.1952 - 35.1987; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2835403;https://www.pdcnet.org/tulane</t>
-  </si>
-  <si>
-    <t>2629519-2</t>
-  </si>
-  <si>
-    <t>Ethics &amp; medics</t>
-  </si>
-  <si>
-    <t>National Catholic Bioethics Center</t>
-  </si>
-  <si>
-    <t>Philadelphia, Pa.</t>
-  </si>
-  <si>
-    <t>1938-1638</t>
-  </si>
-  <si>
-    <t>100;610</t>
-  </si>
-  <si>
-    <t>Volume 45, number 12 (December 2020) [?]-</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/em;http://www.bibliothek.uni-regensburg.de/ezeit/?2629519</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DE-12</t>
-  </si>
-  <si>
-    <t>2847726-1</t>
-  </si>
-  <si>
-    <t>Saint Augustine lecture series, The</t>
-  </si>
-  <si>
-    <t>Villanova University Press;Macmillan</t>
-  </si>
-  <si>
-    <t>Villanova, Pa.;New York, NY</t>
-  </si>
-  <si>
-    <t>2153-3040</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1959-1986 ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/stauglect;http://www.bibliothek.uni-regensburg.de/ezeit/?2847726</t>
-  </si>
-  <si>
-    <t>2879202-6</t>
-  </si>
-  <si>
-    <t>Thinking</t>
-  </si>
-  <si>
-    <t>IAPC</t>
-  </si>
-  <si>
-    <t>Montclair, NJ</t>
-  </si>
-  <si>
-    <t>2380-6370</t>
-  </si>
-  <si>
-    <t>100;370</t>
-  </si>
-  <si>
-    <t>1 (1979)-20 (2014) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/thinking;http://www.bibliothek.uni-regensburg.de/ezeit/?2879202</t>
-  </si>
-  <si>
-    <t>2694345-1</t>
-  </si>
-  <si>
-    <t>Philo</t>
-  </si>
-  <si>
-    <t>Center for Inquiry</t>
-  </si>
-  <si>
-    <t>Amherst, NY</t>
-  </si>
-  <si>
-    <t>2154-1639</t>
-  </si>
-  <si>
-    <t>1.1998-vol. 17, no. 1 (spring/summer 2014) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/philo;http://www.bibliothek.uni-regensburg.de/ezeit/?2694345</t>
-  </si>
-  <si>
-    <t>2771677-6</t>
-  </si>
-  <si>
-    <t>The annual of the Society of Christian Ethics</t>
-  </si>
-  <si>
-    <t>Society of Christian Ethics</t>
-  </si>
-  <si>
-    <t>Dallas, Tex.</t>
-  </si>
-  <si>
-    <t>2372-9023</t>
-  </si>
-  <si>
-    <t>100;230</t>
-  </si>
-  <si>
-    <t>2538854-X</t>
-  </si>
-  <si>
-    <t>2771688-0</t>
-  </si>
-  <si>
-    <t>[1.]1981 - [16.]1996; 17.1997 - 21.2001</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/asce;https://www.jstor.org/journal/annusocichriethi;http://www.bibliothek.uni-regensburg.de/ezeit/?2771677</t>
-  </si>
-  <si>
-    <t>Selected papers from the ... annual meeting</t>
-  </si>
-  <si>
-    <t>SCE;Council on the Study of Religion, Wilfrid Laurier Univ.</t>
-  </si>
-  <si>
-    <t>Dallas, Tex.;Waterloo, Ontario</t>
-  </si>
-  <si>
-    <t>2372-904X</t>
-  </si>
-  <si>
-    <t>2771690-9</t>
-  </si>
-  <si>
-    <t>21.1980</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2771688;https://www.pdcnet.org/selpapsce;https://www.jstor.org/journal/selpapsocchreth</t>
-  </si>
-  <si>
-    <t>Scholars Press</t>
-  </si>
-  <si>
-    <t>Missoula, Mont.</t>
-  </si>
-  <si>
-    <t>2372-9082</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 16.1975 - 20.1979</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2771690;https://www.pdcnet.org/selpapasce;https://www.jstor.org/journal/selpapamesocchre</t>
-  </si>
-  <si>
-    <t>2830039-7</t>
-  </si>
-  <si>
-    <t>Business ethics</t>
-  </si>
-  <si>
-    <t>New Mountain Media LLC;Mavis</t>
-  </si>
-  <si>
-    <t>New York;Minneapolis, Minn.</t>
-  </si>
-  <si>
-    <t>2155-2398</t>
-  </si>
-  <si>
-    <t>330;360;100</t>
-  </si>
-  <si>
-    <t>1.1987 - 20.2006,2</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2830039;https://www.pdcnet.org/bemag</t>
-  </si>
-  <si>
-    <t>2830210-2</t>
-  </si>
-  <si>
-    <t>Bulletin of literary semiotics</t>
-  </si>
-  <si>
-    <t>Tufts Univ.</t>
-  </si>
-  <si>
-    <t>Medford, Mass.</t>
-  </si>
-  <si>
-    <t>2334-5268</t>
-  </si>
-  <si>
-    <t>400;800</t>
-  </si>
-  <si>
-    <t>2831377-X</t>
-  </si>
-  <si>
-    <t>No. 2 (1975)-no. 3 (1976)</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/bls;http://www.bibliothek.uni-regensburg.de/ezeit/?2830210</t>
-  </si>
-  <si>
-    <t>2830681-8</t>
-  </si>
-  <si>
-    <t>Proceedings of the International Association for Business and Society</t>
-  </si>
-  <si>
-    <t>International Association for Business and Society</t>
-  </si>
-  <si>
-    <t>[Erscheinungsort nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>2160-6900</t>
-  </si>
-  <si>
-    <t>Volume 1-</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/iabsproc;http://www.bibliothek.uni-regensburg.de/ezeit/?2830681</t>
-  </si>
-  <si>
-    <t>2830711-2</t>
-  </si>
-  <si>
-    <t>Social imaginaries</t>
-  </si>
-  <si>
-    <t>Zeta Books</t>
-  </si>
-  <si>
-    <t>Bukarest</t>
-  </si>
-  <si>
-    <t>2457-2926</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>FID-OST-DE-12;FID-PHILOS-DE-38;FID-PHILOS-DE-12</t>
-  </si>
-  <si>
-    <t>Volume 1, issue 1 (spring 2015)-volume 5, issue 2 (autumn 2019) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/si;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;https://www.ceeol.com/search/journal-detail?id=2391;http://www.bibliothek.uni-regensburg.de/ezeit/?2830711</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>2831581-9</t>
-  </si>
-  <si>
-    <t>The modern schoolman</t>
-  </si>
-  <si>
-    <t>Saint Louis, Mo.</t>
-  </si>
-  <si>
-    <t>2164-0726</t>
-  </si>
-  <si>
-    <t>1;FID-PHILOS-DE-38;FID-PHILOS-DE-12</t>
-  </si>
-  <si>
-    <t>2831730-0</t>
-  </si>
-  <si>
-    <t>1.1925 - 89.2012</t>
-  </si>
-  <si>
-    <t>https://www.pdcnet.org/schoolman;http://www.bibliothek.uni-regensburg.de/ezeit/?2831581</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,34 +1333,34 @@
         <v>32</v>
       </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1347,16 +1368,16 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1401,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -1413,7 +1434,7 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y3" t="s">
         <v>32</v>
@@ -1421,76 +1442,76 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>40</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -1498,37 +1519,37 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -1543,16 +1564,16 @@
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
         <v>32</v>
@@ -1567,7 +1588,7 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y5" t="s">
         <v>32</v>
@@ -1575,22 +1596,22 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1599,13 +1620,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -1620,16 +1641,16 @@
         <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
         <v>32</v>
@@ -1644,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -1652,22 +1673,22 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1676,13 +1697,13 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -1697,16 +1718,16 @@
         <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
         <v>32</v>
@@ -1721,7 +1742,7 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y7" t="s">
         <v>32</v>
@@ -1729,37 +1750,37 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -1774,16 +1795,16 @@
         <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
         <v>32</v>
@@ -1798,7 +1819,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -1806,37 +1827,37 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -1857,10 +1878,10 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
@@ -1875,7 +1896,7 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y9" t="s">
         <v>32</v>
@@ -1883,22 +1904,22 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1907,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -1928,16 +1949,16 @@
         <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="T10" t="s">
         <v>32</v>
@@ -1952,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y10" t="s">
         <v>32</v>
@@ -1960,22 +1981,22 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1984,13 +2005,13 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -2011,10 +2032,10 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="T11" t="s">
         <v>32</v>
@@ -2029,7 +2050,7 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y11" t="s">
         <v>32</v>
@@ -2037,22 +2058,22 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -2061,13 +2082,13 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2082,16 +2103,16 @@
         <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="Q12" t="s">
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="T12" t="s">
         <v>32</v>
@@ -2106,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y12" t="s">
         <v>32</v>
@@ -2114,22 +2135,22 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -2138,13 +2159,13 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -2165,10 +2186,10 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="T13" t="s">
         <v>32</v>
@@ -2183,7 +2204,7 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -2191,22 +2212,22 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -2215,13 +2236,13 @@
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -2236,16 +2257,16 @@
         <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="T14" t="s">
         <v>32</v>
@@ -2260,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y14" t="s">
         <v>32</v>
@@ -2268,22 +2289,22 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -2292,13 +2313,13 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -2319,48 +2340,48 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="T15" t="s">
         <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="W15" t="s">
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -2369,13 +2390,13 @@
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -2390,16 +2411,16 @@
         <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T16" t="s">
         <v>32</v>
@@ -2414,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y16" t="s">
         <v>32</v>
@@ -2422,22 +2443,22 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -2446,13 +2467,13 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -2473,10 +2494,10 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T17" t="s">
         <v>32</v>
@@ -2491,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y17" t="s">
         <v>32</v>
@@ -2499,22 +2520,22 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2523,13 +2544,13 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -2550,10 +2571,10 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T18" t="s">
         <v>32</v>
@@ -2568,30 +2589,30 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2600,13 +2621,13 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -2627,10 +2648,10 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="S19" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="T19" t="s">
         <v>32</v>
@@ -2645,7 +2666,7 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y19" t="s">
         <v>32</v>
@@ -2653,22 +2674,22 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2677,13 +2698,13 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -2704,10 +2725,10 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="S20" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="T20" t="s">
         <v>32</v>
@@ -2722,7 +2743,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -2730,22 +2751,22 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2754,13 +2775,13 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -2781,10 +2802,10 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="S21" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="T21" t="s">
         <v>32</v>
@@ -2799,30 +2820,30 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2831,13 +2852,13 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -2858,10 +2879,10 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T22" t="s">
         <v>32</v>
@@ -2876,7 +2897,7 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y22" t="s">
         <v>32</v>
@@ -2884,37 +2905,37 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
@@ -2935,10 +2956,10 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="S23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T23" t="s">
         <v>32</v>
@@ -2953,7 +2974,7 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y23" t="s">
         <v>32</v>
@@ -2961,22 +2982,22 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2985,13 +3006,13 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -3006,16 +3027,16 @@
         <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="R24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="S24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="T24" t="s">
         <v>32</v>
@@ -3030,7 +3051,7 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y24" t="s">
         <v>32</v>
@@ -3038,22 +3059,22 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -3062,13 +3083,13 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -3083,16 +3104,16 @@
         <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="Q25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T25" t="s">
         <v>32</v>
@@ -3107,7 +3128,7 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y25" t="s">
         <v>32</v>
@@ -3115,16 +3136,16 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -3142,10 +3163,10 @@
         <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -3160,17 +3181,17 @@
         <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
         <v>229</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>230</v>
       </c>
-      <c r="S26" t="s">
-        <v>231</v>
-      </c>
       <c r="T26" t="s">
         <v>32</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y26" t="s">
         <v>32</v>
@@ -3192,22 +3213,22 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3216,13 +3237,13 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -3237,16 +3258,16 @@
         <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s">
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T27" t="s">
         <v>32</v>
@@ -3261,7 +3282,7 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y27" t="s">
         <v>32</v>
@@ -3269,22 +3290,22 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -3293,13 +3314,13 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -3314,16 +3335,16 @@
         <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="Q28" t="s">
         <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="S28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s">
         <v>32</v>
@@ -3338,7 +3359,7 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y28" t="s">
         <v>32</v>
@@ -3346,22 +3367,22 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3370,13 +3391,13 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
@@ -3391,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="s">
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T29" t="s">
         <v>32</v>
@@ -3415,30 +3436,30 @@
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3447,13 +3468,13 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -3474,13 +3495,13 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="S30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="T30" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="U30" t="s">
         <v>32</v>
@@ -3492,30 +3513,30 @@
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="Y30" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -3524,13 +3545,13 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -3545,19 +3566,19 @@
         <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="Q31" t="s">
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="T31" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="U31" t="s">
         <v>32</v>
@@ -3569,7 +3590,7 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y31" t="s">
         <v>32</v>
@@ -3577,22 +3598,22 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -3601,13 +3622,13 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
@@ -3622,7 +3643,7 @@
         <v>32</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="Q32" t="s">
         <v>32</v>
@@ -3646,9 +3667,86 @@
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="s">
+        <v>284</v>
+      </c>
+      <c r="S33" t="s">
+        <v>285</v>
+      </c>
+      <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y33" t="s">
         <v>32</v>
       </c>
     </row>
